--- a/Articles/Student_Articles/Grade 3 &4 articles.xlsx
+++ b/Articles/Student_Articles/Grade 3 &4 articles.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATISH SHAH\Desktop\Gaurav Shah\Projects\Magazine 2021-22\Flying_High_2021-22\Articles\Student_Articles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF01293-953F-4666-B0B5-0704BCFF23F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Grade 3 articles" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Grade 4 articles" sheetId="2" r:id="rId5"/>
+    <sheet name="Grade 3 articles" sheetId="1" r:id="rId1"/>
+    <sheet name="Grade 4 articles" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -639,29 +648,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -672,7 +685,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -682,45 +695,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -910,141 +922,147 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="3" max="3" width="26.13"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.25"/>
-    <col customWidth="1" min="3" max="3" width="35.63"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +1132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1198,7 +1216,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" ht="31.5" customHeight="1">
+    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1338,7 +1356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1394,7 +1412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -1422,7 +1440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1464,7 +1482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
@@ -1492,7 +1510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
@@ -1520,7 +1538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -1548,7 +1566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1618,7 +1636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -1646,7 +1664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -1674,7 +1692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -1688,7 +1706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>125</v>
       </c>
@@ -1716,7 +1734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -1730,13 +1748,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Articles/Student_Articles/Grade 3 &4 articles.xlsx
+++ b/Articles/Student_Articles/Grade 3 &4 articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATISH SHAH\Desktop\Gaurav Shah\Projects\Magazine 2021-22\Flying_High_2021-22\Articles\Student_Articles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheer Ramnani\Desktop\MAGAZINE\Flying_High_2021-22\Articles\Student_Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF01293-953F-4666-B0B5-0704BCFF23F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD3D00-6181-4DAF-A15A-C1F84775FA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade 3 articles" sheetId="1" r:id="rId1"/>
@@ -707,13 +707,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,113 +932,113 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>104</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>119</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>123</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>125</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -1748,10 +1748,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
     </row>
   </sheetData>
